--- a/tests/results/Explorer Results/results.xlsx
+++ b/tests/results/Explorer Results/results.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>avg_total_time</t>
+          <t>median_total_time</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>95.7236</v>
+        <v>95.0887</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>95.68389999999999</v>
+        <v>96.3306</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>95.68389999999999</v>
+        <v>97.3379</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>97.0826</v>
+        <v>96.3306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>95.48260000000001</v>
+        <v>97.0553</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>94.7783</v>
+        <v>95.4863</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>29.9115</v>
+        <v>30.5487</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.9025</v>
+        <v>29.6155</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>30.0241</v>
+        <v>29.3561</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>29.373</v>
+        <v>29.8688</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>29.9025</v>
+        <v>28.7669</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>29.084</v>
+        <v>29.6155</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>15.3202</v>
+        <v>15.2522</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0637</v>
+        <v>15.2264</v>
       </c>
     </row>
     <row r="13">
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>15.16</v>
+        <v>15.1624</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0637</v>
+        <v>15.295</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>14.9146</v>
+        <v>15.2264</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0116</v>
+        <v>15.1321</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>8.12528</v>
+        <v>8.02725</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.07569</v>
+        <v>8.037330000000001</v>
       </c>
     </row>
     <row r="18">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>8.08243</v>
+        <v>8.06785</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>8.03792</v>
+        <v>8.03285</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>8.043760000000001</v>
+        <v>8.037330000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>8.07569</v>
+        <v>8.1408</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>7.42615</v>
+        <v>7.43991</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7.38072</v>
+        <v>7.33486</v>
       </c>
     </row>
     <row r="23">
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>7.38072</v>
+        <v>7.38213</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>7.22718</v>
+        <v>7.23501</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>7.36281</v>
+        <v>7.33486</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>7.56627</v>
+        <v>7.29104</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>10.4129</v>
+        <v>10.5762</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.4732</v>
+        <v>10.512</v>
       </c>
     </row>
     <row r="28">
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>10.4732</v>
+        <v>10.638</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>10.4176</v>
+        <v>10.5082</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>10.4952</v>
+        <v>10.4713</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>10.6007</v>
+        <v>10.512</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>17.7905</v>
+        <v>18.2071</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.9718</v>
+        <v>18.0042</v>
       </c>
     </row>
     <row r="33">
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>17.9909</v>
+        <v>18.0042</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>17.9718</v>
+        <v>18.1773</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>18.1012</v>
+        <v>17.9016</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>17.969</v>
+        <v>17.7711</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>33.8893</v>
+        <v>33.9892</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>33.9503</v>
+        <v>34.0164</v>
       </c>
     </row>
     <row r="38">
@@ -1616,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>34.1475</v>
+        <v>34.0164</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>34.2508</v>
+        <v>34.0346</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>33.9503</v>
+        <v>33.9635</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>33.9437</v>
+        <v>34.2158</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>67.3352</v>
+        <v>66.5872</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>66.79300000000001</v>
+        <v>66.5872</v>
       </c>
     </row>
     <row r="43">
@@ -1771,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>66.6537</v>
+        <v>66.4684</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>66.79300000000001</v>
+        <v>66.5386</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>66.8039</v>
+        <v>66.90900000000001</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>66.3848</v>
+        <v>66.73180000000001</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>107.818</v>
+        <v>106.63</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I47" t="n">
-        <v>108.918</v>
+        <v>106.72</v>
       </c>
     </row>
     <row r="48">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>109.173</v>
+        <v>106.72</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>107.431</v>
+        <v>109.169</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>111.628</v>
+        <v>106.183</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>108.918</v>
+        <v>107.819</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>37.7764</v>
+        <v>36.2765</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I52" t="n">
-        <v>37.2356</v>
+        <v>36.6545</v>
       </c>
     </row>
     <row r="53">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>37.2356</v>
+        <v>36.2364</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>37.389</v>
+        <v>37.1723</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>37.2355</v>
+        <v>36.6545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>37.2263</v>
+        <v>36.7112</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>23.0551</v>
+        <v>20.9332</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I57" t="n">
-        <v>22.9112</v>
+        <v>19.4109</v>
       </c>
     </row>
     <row r="58">
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>22.9112</v>
+        <v>19.5426</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>23.0706</v>
+        <v>19.3682</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>22.7444</v>
+        <v>19.3393</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>22.7706</v>
+        <v>19.4109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>16.2709</v>
+        <v>15.644</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I62" t="n">
-        <v>16.1796</v>
+        <v>15.6402</v>
       </c>
     </row>
     <row r="63">
@@ -2391,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>16.1796</v>
+        <v>15.6229</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>16.136</v>
+        <v>15.6402</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>16.1544</v>
+        <v>15.608</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>16.2131</v>
+        <v>15.6887</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>20.7127</v>
+        <v>20.0795</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I67" t="n">
-        <v>20.756</v>
+        <v>20.1796</v>
       </c>
     </row>
     <row r="68">
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>20.8707</v>
+        <v>20.2611</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>20.7598</v>
+        <v>20.1647</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>20.6425</v>
+        <v>20.3253</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>20.756</v>
+        <v>20.1796</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>205.877</v>
+        <v>78.85590000000001</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I72" t="n">
-        <v>205.171</v>
+        <v>82.0352</v>
       </c>
     </row>
     <row r="73">
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>201.086</v>
+        <v>81.7578</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>205.171</v>
+        <v>82.3172</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>206.266</v>
+        <v>82.5532</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>202.573</v>
+        <v>82.0352</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>473.264</v>
+        <v>215.378</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I77" t="n">
-        <v>234.404</v>
+        <v>215.378</v>
       </c>
     </row>
     <row r="78">
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>477.021</v>
+        <v>217.65</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>234.404</v>
+        <v>230.684</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>214.202</v>
+        <v>215.13</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>213.6</v>
+        <v>215.079</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>214.781</v>
+        <v>218.39</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I82" t="n">
-        <v>214.711</v>
+        <v>221.215</v>
       </c>
     </row>
     <row r="83">
@@ -3011,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>214.711</v>
+        <v>221.215</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>214.798</v>
+        <v>276.307</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>214.334</v>
+        <v>248.393</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>214.658</v>
+        <v>218.199</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>326.066</v>
+        <v>327.852</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>0.04600000000000648</v>
       </c>
       <c r="I87" t="n">
-        <v>325.993</v>
+        <v>344.854</v>
       </c>
     </row>
     <row r="88">
@@ -3166,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>325.916</v>
+        <v>387.685</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>326.504</v>
+        <v>344.854</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>325.826</v>
+        <v>389.998</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>325.993</v>
+        <v>324.01</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>124.126</v>
+        <v>119.618</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I92" t="n">
-        <v>124.126</v>
+        <v>119.717</v>
       </c>
     </row>
     <row r="93">
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>124.946</v>
+        <v>121.132</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>120.135</v>
+        <v>119.717</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="E95" t="n">
-        <v>118.076</v>
+        <v>119.805</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>132.703</v>
+        <v>119.714</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>97.6242</v>
+        <v>97.5996</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I97" t="n">
-        <v>96.5729</v>
+        <v>97.2217</v>
       </c>
     </row>
     <row r="98">
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>95.7439</v>
+        <v>97.1953</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>98.2997</v>
+        <v>97.467</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>96.5729</v>
+        <v>96.2392</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>95.6425</v>
+        <v>97.2217</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>383.823</v>
+        <v>381.614</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I102" t="n">
-        <v>383.522</v>
+        <v>381.719</v>
       </c>
     </row>
     <row r="103">
@@ -3631,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>384.085</v>
+        <v>381.974</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>383.332</v>
+        <v>381.719</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>383.522</v>
+        <v>381.586</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="E106" t="n">
-        <v>383.441</v>
+        <v>382.23</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>808.707</v>
+        <v>808.048</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I107" t="n">
-        <v>808.564</v>
+        <v>808.146</v>
       </c>
     </row>
     <row r="108">
@@ -3786,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>808.564</v>
+        <v>808.441</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>808.227</v>
+        <v>808.146</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>808.569</v>
+        <v>808.264</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="E111" t="n">
-        <v>808.038</v>
+        <v>807.939</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1602.32</v>
+        <v>1602.38</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I112" t="n">
-        <v>1602.61</v>
+        <v>1602.7</v>
       </c>
     </row>
     <row r="113">
@@ -3941,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>1602.61</v>
+        <v>1603.01</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>1602.43</v>
+        <v>1602.7</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>1603</v>
+        <v>1602.67</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>1603.03</v>
+        <v>1603.12</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1738.89</v>
+        <v>1741.62</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I117" t="n">
-        <v>1743.11</v>
+        <v>1740.9</v>
       </c>
     </row>
     <row r="118">
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>1742.42</v>
+        <v>1741.06</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>1765.95</v>
+        <v>1740.9</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>1743.21</v>
+        <v>1740.48</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>1743.11</v>
+        <v>1740.34</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1782.68</v>
+        <v>1781.67</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I122" t="n">
-        <v>1782.82</v>
+        <v>1782.67</v>
       </c>
     </row>
     <row r="123">
@@ -4251,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>1782.99</v>
+        <v>1783.53</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>1782.82</v>
+        <v>1787.33</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>1782.37</v>
+        <v>1782.67</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>5</v>
       </c>
       <c r="E126" t="n">
-        <v>1782.87</v>
+        <v>1782.39</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>2317.26</v>
+        <v>2316.64</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I127" t="n">
-        <v>2318.39</v>
+        <v>2316.06</v>
       </c>
     </row>
     <row r="128">
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>2317.42</v>
+        <v>2315.62</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>2335.8</v>
+        <v>2316.06</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>2318.39</v>
+        <v>2315.62</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>2318.88</v>
+        <v>2332.63</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>3974.97</v>
+        <v>4272.15</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>0.3508999999999958</v>
       </c>
       <c r="I132" t="n">
-        <v>3974.97</v>
+        <v>4001.86</v>
       </c>
     </row>
     <row r="133">
@@ -4561,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>3972.98</v>
+        <v>3981.02</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>3975.62</v>
+        <v>3995.79</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>4</v>
       </c>
       <c r="E135" t="n">
-        <v>3979.26</v>
+        <v>4001.86</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>3973.91</v>
+        <v>4288.07</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>11.8878</v>
+        <v>11.5463</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>11.8878</v>
+        <v>11.8213</v>
       </c>
     </row>
     <row r="138">
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>12.8265</v>
+        <v>12.0057</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>12.091</v>
+        <v>11.8213</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="E140" t="n">
-        <v>11.5622</v>
+        <v>11.5766</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>11.5524</v>
+        <v>13.0925</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>4.43978</v>
+        <v>4.54684</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>4.43978</v>
+        <v>4.39386</v>
       </c>
     </row>
     <row r="143">
@@ -4871,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>4.48009</v>
+        <v>4.39386</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>4.43645</v>
+        <v>4.48545</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>4.67587</v>
+        <v>4.27325</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="E146" t="n">
-        <v>4.33607</v>
+        <v>4.1883</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>2.33164</v>
+        <v>2.19489</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2.17116</v>
+        <v>2.13645</v>
       </c>
     </row>
     <row r="148">
@@ -5026,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>2.17116</v>
+        <v>2.14968</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>2.19791</v>
+        <v>2.13645</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>2.10667</v>
+        <v>2.09991</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>2.09029</v>
+        <v>2.09858</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1.22314</v>
+        <v>1.21316</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1.19965</v>
+        <v>1.19642</v>
       </c>
     </row>
     <row r="153">
@@ -5181,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>1.20087</v>
+        <v>1.20498</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>1.19965</v>
+        <v>1.19642</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>1.19518</v>
+        <v>1.19099</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>1.18531</v>
+        <v>1.18927</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.03331</v>
+        <v>1.03501</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1.04109</v>
+        <v>1.04258</v>
       </c>
     </row>
     <row r="158">
@@ -5336,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>1.04109</v>
+        <v>1.04573</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>1.04293</v>
+        <v>1.04378</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>1.03517</v>
+        <v>1.04258</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>1.04354</v>
+        <v>1.03973</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>1.33234</v>
+        <v>1.34124</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1.34018</v>
+        <v>1.34793</v>
       </c>
     </row>
     <row r="163">
@@ -5491,7 +5491,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>1.33671</v>
+        <v>1.34113</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>1.34018</v>
+        <v>1.34793</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>1.35855</v>
+        <v>1.35276</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>5</v>
       </c>
       <c r="E166" t="n">
-        <v>1.34037</v>
+        <v>1.35108</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>2.18928</v>
+        <v>2.18698</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>2.17915</v>
+        <v>2.18949</v>
       </c>
     </row>
     <row r="168">
@@ -5646,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>2.17915</v>
+        <v>2.19582</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="n">
-        <v>2.17876</v>
+        <v>2.17989</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>2.17815</v>
+        <v>2.18949</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>5</v>
       </c>
       <c r="E171" t="n">
-        <v>2.18681</v>
+        <v>2.19254</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>4.10527</v>
+        <v>4.12322</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>4.09827</v>
+        <v>4.11832</v>
       </c>
     </row>
     <row r="173">
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>4.08736</v>
+        <v>4.11294</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>4.09827</v>
+        <v>4.12514</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>4.10695</v>
+        <v>4.11832</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>5</v>
       </c>
       <c r="E176" t="n">
-        <v>4.09544</v>
+        <v>4.10846</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>8.03542</v>
+        <v>8.039949999999999</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>8.054209999999999</v>
+        <v>8.058149999999999</v>
       </c>
     </row>
     <row r="178">
@@ -5956,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="E178" t="n">
-        <v>8.03622</v>
+        <v>8.058149999999999</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>3</v>
       </c>
       <c r="E179" t="n">
-        <v>8.054209999999999</v>
+        <v>8.05111</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>8.06184</v>
+        <v>8.07837</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>8.119490000000001</v>
+        <v>8.06982</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>27.5462</v>
+        <v>27.0555</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>26.5497</v>
+        <v>27.0555</v>
       </c>
     </row>
     <row r="183">
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>26.5497</v>
+        <v>27.4411</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>28.1529</v>
+        <v>26.1207</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>4</v>
       </c>
       <c r="E185" t="n">
-        <v>25.7607</v>
+        <v>25.832</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="E186" t="n">
-        <v>25.2982</v>
+        <v>27.8584</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>11.0737</v>
+        <v>10.7338</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>10.6678</v>
+        <v>10.7999</v>
       </c>
     </row>
     <row r="188">
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="E188" t="n">
-        <v>10.6385</v>
+        <v>10.7638</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>10.7726</v>
+        <v>10.7999</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>4</v>
       </c>
       <c r="E190" t="n">
-        <v>10.6678</v>
+        <v>10.8894</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>10.6034</v>
+        <v>10.8343</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>6.2457</v>
+        <v>6.2347</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>5.47292</v>
+        <v>5.46704</v>
       </c>
     </row>
     <row r="193">
@@ -6421,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="n">
-        <v>5.76516</v>
+        <v>5.7968</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>5.47292</v>
+        <v>5.46704</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>4</v>
       </c>
       <c r="E195" t="n">
-        <v>5.37291</v>
+        <v>5.34881</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>5</v>
       </c>
       <c r="E196" t="n">
-        <v>5.33066</v>
+        <v>5.32393</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>4.07768</v>
+        <v>4.07597</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>4.05746</v>
+        <v>4.04816</v>
       </c>
     </row>
     <row r="198">
@@ -6576,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>4.05746</v>
+        <v>4.0476</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="E199" t="n">
-        <v>4.04237</v>
+        <v>4.04816</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>4</v>
       </c>
       <c r="E200" t="n">
-        <v>4.06103</v>
+        <v>4.0464</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="E201" t="n">
-        <v>4.04312</v>
+        <v>4.05127</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>5.27416</v>
+        <v>5.67775</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>5.3321</v>
+        <v>5.39724</v>
       </c>
     </row>
     <row r="203">
@@ -6731,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="E203" t="n">
-        <v>5.3321</v>
+        <v>5.39724</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="E204" t="n">
-        <v>5.35635</v>
+        <v>5.3643</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="E205" t="n">
-        <v>5.33347</v>
+        <v>5.38363</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="E206" t="n">
-        <v>5.30274</v>
+        <v>5.41377</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>31.9715</v>
+        <v>31.9281</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>31.7592</v>
+        <v>31.8955</v>
       </c>
     </row>
     <row r="208">
@@ -6886,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="E208" t="n">
-        <v>31.6687</v>
+        <v>31.8955</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="E209" t="n">
-        <v>31.7592</v>
+        <v>31.8032</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="E210" t="n">
-        <v>31.7152</v>
+        <v>32.0807</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>5</v>
       </c>
       <c r="E211" t="n">
-        <v>31.972</v>
+        <v>31.5948</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>60.5489</v>
+        <v>60.6251</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>60.5724</v>
+        <v>60.5728</v>
       </c>
     </row>
     <row r="213">
@@ -7041,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="E213" t="n">
-        <v>60.5647</v>
+        <v>60.6286</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="E214" t="n">
-        <v>60.6363</v>
+        <v>60.4996</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>4</v>
       </c>
       <c r="E215" t="n">
-        <v>60.5724</v>
+        <v>60.5728</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>5</v>
       </c>
       <c r="E216" t="n">
-        <v>60.608</v>
+        <v>60.4809</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>61.6112</v>
+        <v>61.8983</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>61.6942</v>
+        <v>61.791</v>
       </c>
     </row>
     <row r="218">
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="E218" t="n">
-        <v>61.7001</v>
+        <v>61.7358</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>3</v>
       </c>
       <c r="E219" t="n">
-        <v>61.8215</v>
+        <v>61.8598</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="E220" t="n">
-        <v>61.6942</v>
+        <v>61.791</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>5</v>
       </c>
       <c r="E221" t="n">
-        <v>61.6924</v>
+        <v>61.6481</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>90.20359999999999</v>
+        <v>90.2085</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>90.2406</v>
+        <v>90.19799999999999</v>
       </c>
     </row>
     <row r="223">
@@ -7351,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>90.31</v>
+        <v>90.2079</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>3</v>
       </c>
       <c r="E224" t="n">
-        <v>90.2406</v>
+        <v>90.1465</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>4</v>
       </c>
       <c r="E225" t="n">
-        <v>90.4145</v>
+        <v>89.81399999999999</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>5</v>
       </c>
       <c r="E226" t="n">
-        <v>89.9288</v>
+        <v>90.19799999999999</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>195.959</v>
+        <v>193.977</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>195.704</v>
+        <v>196.736</v>
       </c>
     </row>
     <row r="228">
@@ -7506,7 +7506,7 @@
         <v>2</v>
       </c>
       <c r="E228" t="n">
-        <v>196.218</v>
+        <v>196.736</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>3</v>
       </c>
       <c r="E229" t="n">
-        <v>195.378</v>
+        <v>193.968</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>194.795</v>
+        <v>248.668</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>5</v>
       </c>
       <c r="E231" t="n">
-        <v>195.704</v>
+        <v>262.452</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>166.703</v>
+        <v>166.301</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>166.5</v>
+        <v>165.757</v>
       </c>
     </row>
     <row r="233">
@@ -7661,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="E233" t="n">
-        <v>165.466</v>
+        <v>165.768</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>3</v>
       </c>
       <c r="E234" t="n">
-        <v>166.576</v>
+        <v>165.757</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>166.5</v>
+        <v>165.214</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>5</v>
       </c>
       <c r="E236" t="n">
-        <v>165.774</v>
+        <v>165.6</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>512.208</v>
+        <v>511.926</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>511.376</v>
+        <v>511.43</v>
       </c>
     </row>
     <row r="238">
@@ -7816,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="E238" t="n">
-        <v>511.913</v>
+        <v>511.338</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="E239" t="n">
-        <v>511.376</v>
+        <v>511.43</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>4</v>
       </c>
       <c r="E240" t="n">
-        <v>510.809</v>
+        <v>511.395</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>5</v>
       </c>
       <c r="E241" t="n">
-        <v>511.13</v>
+        <v>511.549</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>1049.49</v>
+        <v>1050.68</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1049.49</v>
+        <v>1050.68</v>
       </c>
     </row>
     <row r="243">
@@ -7971,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="E243" t="n">
-        <v>1049.49</v>
+        <v>1050.55</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="E244" t="n">
-        <v>1049.52</v>
+        <v>1050.8</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>4</v>
       </c>
       <c r="E245" t="n">
-        <v>1049.33</v>
+        <v>1050.68</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>5</v>
       </c>
       <c r="E246" t="n">
-        <v>1057.55</v>
+        <v>1050.43</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>2130.09</v>
+        <v>2085.98</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>2086.42</v>
+        <v>2101.81</v>
       </c>
     </row>
     <row r="248">
@@ -8126,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="E248" t="n">
-        <v>2112.51</v>
+        <v>2085.44</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>2086.18</v>
+        <v>2101.81</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="E250" t="n">
-        <v>2086.2</v>
+        <v>2126.88</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>5</v>
       </c>
       <c r="E251" t="n">
-        <v>2086.42</v>
+        <v>2112.02</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>2257.48</v>
+        <v>2255.52</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>2255.42</v>
+        <v>2255.17</v>
       </c>
     </row>
     <row r="253">
@@ -8281,7 +8281,7 @@
         <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>2257.01</v>
+        <v>2255.09</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="E254" t="n">
-        <v>2255.21</v>
+        <v>2255.08</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>5</v>
       </c>
       <c r="E256" t="n">
-        <v>2254.84</v>
+        <v>2255.17</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>2229.76</v>
+        <v>2231.17</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>2230.11</v>
+        <v>2231.43</v>
       </c>
     </row>
     <row r="258">
@@ -8436,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="E258" t="n">
-        <v>2230.11</v>
+        <v>2231.43</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>3</v>
       </c>
       <c r="E259" t="n">
-        <v>2230.53</v>
+        <v>2231.23</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>4</v>
       </c>
       <c r="E260" t="n">
-        <v>2230.46</v>
+        <v>2231.61</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>2228.69</v>
+        <v>2231.54</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>2563.36</v>
+        <v>2562.95</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>2562.87</v>
+        <v>2562.95</v>
       </c>
     </row>
     <row r="263">
@@ -8591,7 +8591,7 @@
         <v>2</v>
       </c>
       <c r="E263" t="n">
-        <v>2558.83</v>
+        <v>2565.64</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>3</v>
       </c>
       <c r="E264" t="n">
-        <v>2562.87</v>
+        <v>2561.48</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>4</v>
       </c>
       <c r="E265" t="n">
-        <v>2560.14</v>
+        <v>2558.41</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>5</v>
       </c>
       <c r="E266" t="n">
-        <v>2564.12</v>
+        <v>2563.34</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>4198.94</v>
+        <v>4199.42</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>4203.41</v>
+        <v>4208.31</v>
       </c>
     </row>
     <row r="268">
@@ -8746,7 +8746,7 @@
         <v>2</v>
       </c>
       <c r="E268" t="n">
-        <v>4203.41</v>
+        <v>4192.89</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="E269" t="n">
-        <v>4204.06</v>
+        <v>4208.31</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>4</v>
       </c>
       <c r="E270" t="n">
-        <v>4210.84</v>
+        <v>4208.99</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>5</v>
       </c>
       <c r="E271" t="n">
-        <v>4198.91</v>
+        <v>4218.8</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>6.616</v>
+        <v>6.55817</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>6.66772</v>
+        <v>6.68019</v>
       </c>
     </row>
     <row r="273">
@@ -8901,7 +8901,7 @@
         <v>2</v>
       </c>
       <c r="E273" t="n">
-        <v>6.66772</v>
+        <v>8.13242</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>3</v>
       </c>
       <c r="E274" t="n">
-        <v>6.92776</v>
+        <v>6.68019</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>4</v>
       </c>
       <c r="E275" t="n">
-        <v>7.02493</v>
+        <v>6.64126</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>5</v>
       </c>
       <c r="E276" t="n">
-        <v>6.58578</v>
+        <v>6.68855</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>2.7295</v>
+        <v>2.72233</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>2.6511</v>
+        <v>2.58609</v>
       </c>
     </row>
     <row r="278">
@@ -9056,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="E278" t="n">
-        <v>2.70606</v>
+        <v>2.67208</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>3</v>
       </c>
       <c r="E279" t="n">
-        <v>2.6511</v>
+        <v>2.58609</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>4</v>
       </c>
       <c r="E280" t="n">
-        <v>2.56763</v>
+        <v>2.57166</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>5</v>
       </c>
       <c r="E281" t="n">
-        <v>2.53977</v>
+        <v>2.56889</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>1.27312</v>
+        <v>1.30357</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1.25068</v>
+        <v>1.28065</v>
       </c>
     </row>
     <row r="283">
@@ -9211,7 +9211,7 @@
         <v>2</v>
       </c>
       <c r="E283" t="n">
-        <v>1.24684</v>
+        <v>1.28083</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="E284" t="n">
-        <v>1.25068</v>
+        <v>1.26102</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="E285" t="n">
-        <v>1.26302</v>
+        <v>1.2601</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>5</v>
       </c>
       <c r="E286" t="n">
-        <v>1.24934</v>
+        <v>1.28065</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>0.663583</v>
+        <v>0.648863</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0.64669</v>
+        <v>0.638371</v>
       </c>
     </row>
     <row r="288">
@@ -9366,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="E288" t="n">
-        <v>0.6516</v>
+        <v>0.642547</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>3</v>
       </c>
       <c r="E289" t="n">
-        <v>0.64635</v>
+        <v>0.638371</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="E290" t="n">
-        <v>0.64669</v>
+        <v>0.637649</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>5</v>
       </c>
       <c r="E291" t="n">
-        <v>0.64488</v>
+        <v>0.6305269999999999</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.494094</v>
+        <v>0.491884</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>0.485136</v>
+        <v>0.486831</v>
       </c>
     </row>
     <row r="293">
@@ -9521,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="E293" t="n">
-        <v>0.48186</v>
+        <v>0.491004</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="E294" t="n">
-        <v>0.485095</v>
+        <v>0.485696</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>4</v>
       </c>
       <c r="E295" t="n">
-        <v>0.492123</v>
+        <v>0.486831</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>5</v>
       </c>
       <c r="E296" t="n">
-        <v>0.485136</v>
+        <v>0.483357</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.591151</v>
+        <v>0.5805709999999999</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>0.592269</v>
+        <v>0.586629</v>
       </c>
     </row>
     <row r="298">
@@ -9676,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="E298" t="n">
-        <v>0.592269</v>
+        <v>0.587243</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>3</v>
       </c>
       <c r="E299" t="n">
-        <v>0.593539</v>
+        <v>0.586425</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>4</v>
       </c>
       <c r="E300" t="n">
-        <v>0.588968</v>
+        <v>0.586629</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>5</v>
       </c>
       <c r="E301" t="n">
-        <v>0.594351</v>
+        <v>0.592402</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.945332</v>
+        <v>0.926058</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0.945332</v>
+        <v>0.929983</v>
       </c>
     </row>
     <row r="303">
@@ -9831,7 +9831,7 @@
         <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>0.94887</v>
+        <v>0.92474</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>3</v>
       </c>
       <c r="E304" t="n">
-        <v>0.9225989999999999</v>
+        <v>0.931213</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>4</v>
       </c>
       <c r="E305" t="n">
-        <v>0.956288</v>
+        <v>0.95862</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>5</v>
       </c>
       <c r="E306" t="n">
-        <v>0.941924</v>
+        <v>0.929983</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>1.68368</v>
+        <v>1.67519</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>1.68368</v>
+        <v>1.67519</v>
       </c>
     </row>
     <row r="308">
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="E308" t="n">
-        <v>1.69083</v>
+        <v>1.68989</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>3</v>
       </c>
       <c r="E309" t="n">
-        <v>1.68212</v>
+        <v>1.7021</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>4</v>
       </c>
       <c r="E310" t="n">
-        <v>1.72611</v>
+        <v>1.6707</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>5</v>
       </c>
       <c r="E311" t="n">
-        <v>1.67791</v>
+        <v>1.66982</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>3.24532</v>
+        <v>3.28201</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>3.24532</v>
+        <v>3.25923</v>
       </c>
     </row>
     <row r="313">
@@ -10141,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="E313" t="n">
-        <v>3.21398</v>
+        <v>3.29149</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>3</v>
       </c>
       <c r="E314" t="n">
-        <v>3.28845</v>
+        <v>3.25378</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>4</v>
       </c>
       <c r="E315" t="n">
-        <v>3.21123</v>
+        <v>3.23927</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>5</v>
       </c>
       <c r="E316" t="n">
-        <v>3.26994</v>
+        <v>3.25923</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>11.5475</v>
+        <v>12.1107</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>11.7662</v>
+        <v>12.1107</v>
       </c>
     </row>
     <row r="318">
@@ -10296,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="E318" t="n">
-        <v>11.7662</v>
+        <v>11.9703</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="E319" t="n">
-        <v>13.1268</v>
+        <v>11.9569</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>4</v>
       </c>
       <c r="E320" t="n">
-        <v>12.1036</v>
+        <v>13.4642</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>5</v>
       </c>
       <c r="E321" t="n">
-        <v>11.6368</v>
+        <v>12.3912</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>5.143</v>
+        <v>5.26602</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>5.143</v>
+        <v>5.13969</v>
       </c>
     </row>
     <row r="323">
@@ -10451,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="E323" t="n">
-        <v>5.19215</v>
+        <v>5.13969</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>3</v>
       </c>
       <c r="E324" t="n">
-        <v>5.09912</v>
+        <v>5.10639</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="E325" t="n">
-        <v>5.19226</v>
+        <v>5.17871</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>5</v>
       </c>
       <c r="E326" t="n">
-        <v>5.09467</v>
+        <v>5.13042</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>2.92853</v>
+        <v>2.92042</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>2.79021</v>
+        <v>2.83789</v>
       </c>
     </row>
     <row r="328">
@@ -10606,7 +10606,7 @@
         <v>2</v>
       </c>
       <c r="E328" t="n">
-        <v>2.85348</v>
+        <v>2.86436</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>3</v>
       </c>
       <c r="E329" t="n">
-        <v>2.79021</v>
+        <v>2.83789</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>4</v>
       </c>
       <c r="E330" t="n">
-        <v>2.6889</v>
+        <v>2.7371</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>5</v>
       </c>
       <c r="E331" t="n">
-        <v>2.61472</v>
+        <v>2.69149</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>1.63526</v>
+        <v>1.66655</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1.6195</v>
+        <v>1.61708</v>
       </c>
     </row>
     <row r="333">
@@ -10761,7 +10761,7 @@
         <v>2</v>
       </c>
       <c r="E333" t="n">
-        <v>1.6195</v>
+        <v>1.62299</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>3</v>
       </c>
       <c r="E334" t="n">
-        <v>1.59586</v>
+        <v>1.5874</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="E335" t="n">
-        <v>1.59767</v>
+        <v>1.59421</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>5</v>
       </c>
       <c r="E336" t="n">
-        <v>1.62751</v>
+        <v>1.61708</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>1.85199</v>
+        <v>1.86801</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>1.85199</v>
+        <v>1.87034</v>
       </c>
     </row>
     <row r="338">
@@ -10916,7 +10916,7 @@
         <v>2</v>
       </c>
       <c r="E338" t="n">
-        <v>1.84435</v>
+        <v>1.87034</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>3</v>
       </c>
       <c r="E339" t="n">
-        <v>1.84976</v>
+        <v>1.90781</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>4</v>
       </c>
       <c r="E340" t="n">
-        <v>1.85926</v>
+        <v>1.87795</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>5</v>
       </c>
       <c r="E341" t="n">
-        <v>1.86559</v>
+        <v>1.86881</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>17.5049</v>
+        <v>18.3403</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>17.3992</v>
+        <v>18.3814</v>
       </c>
     </row>
     <row r="343">
@@ -11071,7 +11071,7 @@
         <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>17.3992</v>
+        <v>18.6963</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>3</v>
       </c>
       <c r="E344" t="n">
-        <v>17.2759</v>
+        <v>18.6175</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>4</v>
       </c>
       <c r="E345" t="n">
-        <v>17.0216</v>
+        <v>18.3814</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>5</v>
       </c>
       <c r="E346" t="n">
-        <v>17.6272</v>
+        <v>18.1558</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>41.3182</v>
+        <v>43.4974</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>41.3182</v>
+        <v>42.9137</v>
       </c>
     </row>
     <row r="348">
@@ -11226,7 +11226,7 @@
         <v>2</v>
       </c>
       <c r="E348" t="n">
-        <v>41.3646</v>
+        <v>43.2028</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>3</v>
       </c>
       <c r="E349" t="n">
-        <v>40.7527</v>
+        <v>42.7254</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>4</v>
       </c>
       <c r="E350" t="n">
-        <v>41.6284</v>
+        <v>42.9137</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>5</v>
       </c>
       <c r="E351" t="n">
-        <v>41.0387</v>
+        <v>42.8743</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>44.0226</v>
+        <v>44.4014</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>43.5604</v>
+        <v>44.4995</v>
       </c>
     </row>
     <row r="353">
@@ -11381,7 +11381,7 @@
         <v>2</v>
       </c>
       <c r="E353" t="n">
-        <v>43.5604</v>
+        <v>44.9426</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>3</v>
       </c>
       <c r="E354" t="n">
-        <v>43.5148</v>
+        <v>44.7183</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>4</v>
       </c>
       <c r="E355" t="n">
-        <v>43.5989</v>
+        <v>44.4995</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>5</v>
       </c>
       <c r="E356" t="n">
-        <v>43.1434</v>
+        <v>44.386</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>51.8855</v>
+        <v>52.9527</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>51.6573</v>
+        <v>52.9527</v>
       </c>
     </row>
     <row r="358">
@@ -11536,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="E358" t="n">
-        <v>51.2336</v>
+        <v>53.0954</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>3</v>
       </c>
       <c r="E359" t="n">
-        <v>51.8276</v>
+        <v>52.6988</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>4</v>
       </c>
       <c r="E360" t="n">
-        <v>51.6573</v>
+        <v>53.0331</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>5</v>
       </c>
       <c r="E361" t="n">
-        <v>50.8658</v>
+        <v>52.3526</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>88.48260000000001</v>
+        <v>84.5155</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="n">
-        <v>85.10639999999999</v>
+        <v>85.60890000000001</v>
       </c>
     </row>
     <row r="363">
@@ -11691,7 +11691,7 @@
         <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>84.4234</v>
+        <v>85.60890000000001</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>3</v>
       </c>
       <c r="E364" t="n">
-        <v>84.7873</v>
+        <v>87.56010000000001</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>4</v>
       </c>
       <c r="E365" t="n">
-        <v>86.0722</v>
+        <v>86.6769</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>5</v>
       </c>
       <c r="E366" t="n">
-        <v>85.10639999999999</v>
+        <v>85.4616</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>72.0577</v>
+        <v>72.0455</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>71.7803</v>
+        <v>71.7625</v>
       </c>
     </row>
     <row r="368">
@@ -11846,7 +11846,7 @@
         <v>2</v>
       </c>
       <c r="E368" t="n">
-        <v>70.7996</v>
+        <v>72.04989999999999</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>3</v>
       </c>
       <c r="E369" t="n">
-        <v>71.7803</v>
+        <v>71.0904</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>4</v>
       </c>
       <c r="E370" t="n">
-        <v>71.6052</v>
+        <v>71.2646</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>5</v>
       </c>
       <c r="E371" t="n">
-        <v>72.6439</v>
+        <v>71.7625</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>255.318</v>
+        <v>255.672</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>256.003</v>
+        <v>255.672</v>
       </c>
     </row>
     <row r="373">
@@ -12001,7 +12001,7 @@
         <v>2</v>
       </c>
       <c r="E373" t="n">
-        <v>255.681</v>
+        <v>255.468</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>3</v>
       </c>
       <c r="E374" t="n">
-        <v>257.912</v>
+        <v>258.494</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>4</v>
       </c>
       <c r="E375" t="n">
-        <v>256.003</v>
+        <v>253.048</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>5</v>
       </c>
       <c r="E376" t="n">
-        <v>256.292</v>
+        <v>258.418</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>532.857</v>
+        <v>539.66</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>533.614</v>
+        <v>532.519</v>
       </c>
     </row>
     <row r="378">
@@ -12156,7 +12156,7 @@
         <v>2</v>
       </c>
       <c r="E378" t="n">
-        <v>533.749</v>
+        <v>538.836</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>3</v>
       </c>
       <c r="E379" t="n">
-        <v>533.614</v>
+        <v>528.1660000000001</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>4</v>
       </c>
       <c r="E380" t="n">
-        <v>539.164</v>
+        <v>532.519</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>5</v>
       </c>
       <c r="E381" t="n">
-        <v>532.761</v>
+        <v>525.498</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>1057.77</v>
+        <v>1054.26</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>1066.79</v>
+        <v>1054.26</v>
       </c>
     </row>
     <row r="383">
@@ -12311,7 +12311,7 @@
         <v>2</v>
       </c>
       <c r="E383" t="n">
-        <v>1068.56</v>
+        <v>1055.87</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>3</v>
       </c>
       <c r="E384" t="n">
-        <v>1067.87</v>
+        <v>1043.95</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>4</v>
       </c>
       <c r="E385" t="n">
-        <v>1055.96</v>
+        <v>1054.06</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>5</v>
       </c>
       <c r="E386" t="n">
-        <v>1066.79</v>
+        <v>1055.28</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>1142.52</v>
+        <v>1153.58</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="n">
-        <v>1142.52</v>
+        <v>1152.68</v>
       </c>
     </row>
     <row r="388">
@@ -12466,7 +12466,7 @@
         <v>2</v>
       </c>
       <c r="E388" t="n">
-        <v>1140.33</v>
+        <v>1142.33</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>3</v>
       </c>
       <c r="E389" t="n">
-        <v>1140.58</v>
+        <v>1152.68</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>4</v>
       </c>
       <c r="E390" t="n">
-        <v>1164.62</v>
+        <v>1153.72</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>5</v>
       </c>
       <c r="E391" t="n">
-        <v>1152.1</v>
+        <v>1139.81</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>1124.73</v>
+        <v>1126.33</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="n">
-        <v>1153.29</v>
+        <v>1126.33</v>
       </c>
     </row>
     <row r="393">
@@ -12621,7 +12621,7 @@
         <v>2</v>
       </c>
       <c r="E393" t="n">
-        <v>1166.6</v>
+        <v>1125.67</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>3</v>
       </c>
       <c r="E394" t="n">
-        <v>1188.6</v>
+        <v>1114.79</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>4</v>
       </c>
       <c r="E395" t="n">
-        <v>1131.59</v>
+        <v>1127.97</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>5</v>
       </c>
       <c r="E396" t="n">
-        <v>1153.29</v>
+        <v>1127.8</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>1161.19</v>
+        <v>1157.3</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>1159.95</v>
+        <v>1165.46</v>
       </c>
     </row>
     <row r="398">
@@ -12776,7 +12776,7 @@
         <v>2</v>
       </c>
       <c r="E398" t="n">
-        <v>1159.39</v>
+        <v>1157.9</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>3</v>
       </c>
       <c r="E399" t="n">
-        <v>1159.82</v>
+        <v>1165.46</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>4</v>
       </c>
       <c r="E400" t="n">
-        <v>1159.95</v>
+        <v>1216.42</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>5</v>
       </c>
       <c r="E401" t="n">
-        <v>1161.11</v>
+        <v>1178.88</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>1640.05</v>
+        <v>1799.14</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="n">
-        <v>1633.53</v>
+        <v>1632.23</v>
       </c>
     </row>
     <row r="403">
@@ -12931,7 +12931,7 @@
         <v>2</v>
       </c>
       <c r="E403" t="n">
-        <v>1633.78</v>
+        <v>1633.26</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>3</v>
       </c>
       <c r="E404" t="n">
-        <v>1632.14</v>
+        <v>1632.23</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>4</v>
       </c>
       <c r="E405" t="n">
-        <v>1633.53</v>
+        <v>1632.08</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>5</v>
       </c>
       <c r="E406" t="n">
-        <v>1633.19</v>
+        <v>1630.39</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>4.15981</v>
+        <v>4.09787</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="n">
-        <v>4.16332</v>
+        <v>4.15988</v>
       </c>
     </row>
     <row r="408">
@@ -13086,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="E408" t="n">
-        <v>4.18211</v>
+        <v>4.18231</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>3</v>
       </c>
       <c r="E409" t="n">
-        <v>4.16332</v>
+        <v>4.19841</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>4</v>
       </c>
       <c r="E410" t="n">
-        <v>4.59881</v>
+        <v>4.14579</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>5</v>
       </c>
       <c r="E411" t="n">
-        <v>4.0311</v>
+        <v>4.15988</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>1.9225</v>
+        <v>1.92702</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>1.78379</v>
+        <v>1.8905</v>
       </c>
     </row>
     <row r="413">
@@ -13241,7 +13241,7 @@
         <v>2</v>
       </c>
       <c r="E413" t="n">
-        <v>1.81786</v>
+        <v>1.91687</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>3</v>
       </c>
       <c r="E414" t="n">
-        <v>1.78379</v>
+        <v>1.8905</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>4</v>
       </c>
       <c r="E415" t="n">
-        <v>1.74568</v>
+        <v>1.76784</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>5</v>
       </c>
       <c r="E416" t="n">
-        <v>1.76423</v>
+        <v>1.78016</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.890671</v>
+        <v>0.872572</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="n">
-        <v>0.8806079999999999</v>
+        <v>0.849997</v>
       </c>
     </row>
     <row r="418">
@@ -13396,7 +13396,7 @@
         <v>2</v>
       </c>
       <c r="E418" t="n">
-        <v>0.8806079999999999</v>
+        <v>0.854723</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>3</v>
       </c>
       <c r="E419" t="n">
-        <v>0.887162</v>
+        <v>0.849997</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>4</v>
       </c>
       <c r="E420" t="n">
-        <v>0.87439</v>
+        <v>0.838133</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>5</v>
       </c>
       <c r="E421" t="n">
-        <v>0.859896</v>
+        <v>0.8172779999999999</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>0.501211</v>
+        <v>0.508756</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="n">
-        <v>0.493388</v>
+        <v>0.489686</v>
       </c>
     </row>
     <row r="423">
@@ -13551,7 +13551,7 @@
         <v>2</v>
       </c>
       <c r="E423" t="n">
-        <v>0.494144</v>
+        <v>0.490956</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>3</v>
       </c>
       <c r="E424" t="n">
-        <v>0.493388</v>
+        <v>0.489686</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>4</v>
       </c>
       <c r="E425" t="n">
-        <v>0.484875</v>
+        <v>0.484095</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>5</v>
       </c>
       <c r="E426" t="n">
-        <v>0.48473</v>
+        <v>0.487098</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.444324</v>
+        <v>0.441279</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="n">
-        <v>0.438268</v>
+        <v>0.439647</v>
       </c>
     </row>
     <row r="428">
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="E428" t="n">
-        <v>0.438626</v>
+        <v>0.439566</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>3</v>
       </c>
       <c r="E429" t="n">
-        <v>0.438268</v>
+        <v>0.439803</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>4</v>
       </c>
       <c r="E430" t="n">
-        <v>0.437253</v>
+        <v>0.439647</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>5</v>
       </c>
       <c r="E431" t="n">
-        <v>0.43647</v>
+        <v>0.439105</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>0.592284</v>
+        <v>0.594064</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="n">
-        <v>0.60347</v>
+        <v>0.5965780000000001</v>
       </c>
     </row>
     <row r="433">
@@ -13861,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="E433" t="n">
-        <v>0.603649</v>
+        <v>0.5965780000000001</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>3</v>
       </c>
       <c r="E434" t="n">
-        <v>0.594867</v>
+        <v>0.5968560000000001</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="E435" t="n">
-        <v>0.60347</v>
+        <v>0.596965</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>5</v>
       </c>
       <c r="E436" t="n">
-        <v>0.609226</v>
+        <v>0.595603</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>1.04504</v>
+        <v>1.0455</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="n">
-        <v>1.03788</v>
+        <v>1.04111</v>
       </c>
     </row>
     <row r="438">
@@ -14016,7 +14016,7 @@
         <v>2</v>
       </c>
       <c r="E438" t="n">
-        <v>1.03788</v>
+        <v>1.04885</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>3</v>
       </c>
       <c r="E439" t="n">
-        <v>1.03319</v>
+        <v>1.04111</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>4</v>
       </c>
       <c r="E440" t="n">
-        <v>1.03683</v>
+        <v>1.04048</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>5</v>
       </c>
       <c r="E441" t="n">
-        <v>1.03939</v>
+        <v>1.03861</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>1.91514</v>
+        <v>1.9167</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="n">
-        <v>1.91097</v>
+        <v>1.91226</v>
       </c>
     </row>
     <row r="443">
@@ -14171,7 +14171,7 @@
         <v>2</v>
       </c>
       <c r="E443" t="n">
-        <v>1.91097</v>
+        <v>1.90947</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>3</v>
       </c>
       <c r="E444" t="n">
-        <v>1.90598</v>
+        <v>1.91104</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>4</v>
       </c>
       <c r="E445" t="n">
-        <v>1.91528</v>
+        <v>1.91226</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>5</v>
       </c>
       <c r="E446" t="n">
-        <v>1.89979</v>
+        <v>1.91331</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>3.70015</v>
+        <v>3.71726</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>3.72078</v>
+        <v>3.71725</v>
       </c>
     </row>
     <row r="448">
@@ -14326,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="E448" t="n">
-        <v>3.70924</v>
+        <v>3.70015</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>3</v>
       </c>
       <c r="E449" t="n">
-        <v>3.72078</v>
+        <v>3.69013</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="E450" t="n">
-        <v>3.73126</v>
+        <v>3.71725</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>5</v>
       </c>
       <c r="E451" t="n">
-        <v>3.7224</v>
+        <v>3.73301</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>9.419499999999999</v>
+        <v>10.8979</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="n">
-        <v>9.48129</v>
+        <v>9.52272</v>
       </c>
     </row>
     <row r="453">
@@ -14481,7 +14481,7 @@
         <v>2</v>
       </c>
       <c r="E453" t="n">
-        <v>9.478870000000001</v>
+        <v>9.888299999999999</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>3</v>
       </c>
       <c r="E454" t="n">
-        <v>9.48129</v>
+        <v>9.52272</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>4</v>
       </c>
       <c r="E455" t="n">
-        <v>10.849</v>
+        <v>9.47472</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>5</v>
       </c>
       <c r="E456" t="n">
-        <v>9.48948</v>
+        <v>9.430149999999999</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>4.0734</v>
+        <v>4.07814</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="n">
-        <v>3.98181</v>
+        <v>3.96553</v>
       </c>
     </row>
     <row r="458">
@@ -14636,7 +14636,7 @@
         <v>2</v>
       </c>
       <c r="E458" t="n">
-        <v>4.03019</v>
+        <v>3.95519</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>3</v>
       </c>
       <c r="E459" t="n">
-        <v>3.87082</v>
+        <v>3.95053</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>4</v>
       </c>
       <c r="E460" t="n">
-        <v>3.98181</v>
+        <v>4.06082</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>5</v>
       </c>
       <c r="E461" t="n">
-        <v>3.97327</v>
+        <v>3.96553</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>2.49699</v>
+        <v>2.511</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="n">
-        <v>2.3635</v>
+        <v>2.38448</v>
       </c>
     </row>
     <row r="463">
@@ -14791,7 +14791,7 @@
         <v>2</v>
       </c>
       <c r="E463" t="n">
-        <v>2.45048</v>
+        <v>2.38448</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>3</v>
       </c>
       <c r="E464" t="n">
-        <v>2.3635</v>
+        <v>2.38492</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>4</v>
       </c>
       <c r="E465" t="n">
-        <v>2.23132</v>
+        <v>2.27401</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>5</v>
       </c>
       <c r="E466" t="n">
-        <v>2.16998</v>
+        <v>2.21597</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>1.71513</v>
+        <v>1.73408</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="n">
-        <v>1.72037</v>
+        <v>1.73408</v>
       </c>
     </row>
     <row r="468">
@@ -14946,7 +14946,7 @@
         <v>2</v>
       </c>
       <c r="E468" t="n">
-        <v>1.71693</v>
+        <v>1.72003</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>3</v>
       </c>
       <c r="E469" t="n">
-        <v>1.72037</v>
+        <v>1.73002</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>4</v>
       </c>
       <c r="E470" t="n">
-        <v>1.74633</v>
+        <v>1.75011</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>5</v>
       </c>
       <c r="E471" t="n">
-        <v>1.76217</v>
+        <v>1.75466</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>3.25341</v>
+        <v>3.37977</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="n">
-        <v>3.30282</v>
+        <v>3.37977</v>
       </c>
     </row>
     <row r="473">
@@ -15101,7 +15101,7 @@
         <v>2</v>
       </c>
       <c r="E473" t="n">
-        <v>3.32167</v>
+        <v>3.25406</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>3</v>
       </c>
       <c r="E474" t="n">
-        <v>3.16889</v>
+        <v>3.2899</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>4</v>
       </c>
       <c r="E475" t="n">
-        <v>3.30282</v>
+        <v>3.39864</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>5</v>
       </c>
       <c r="E476" t="n">
-        <v>3.30371</v>
+        <v>3.39164</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>24.4829</v>
+        <v>24.4916</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="n">
-        <v>24.4829</v>
+        <v>24.3974</v>
       </c>
     </row>
     <row r="478">
@@ -15256,7 +15256,7 @@
         <v>2</v>
       </c>
       <c r="E478" t="n">
-        <v>24.5242</v>
+        <v>24.3858</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>3</v>
       </c>
       <c r="E479" t="n">
-        <v>24.4952</v>
+        <v>24.4256</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>4</v>
       </c>
       <c r="E480" t="n">
-        <v>24.4304</v>
+        <v>24.3974</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>5</v>
       </c>
       <c r="E481" t="n">
-        <v>24.387</v>
+        <v>24.2367</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>33.8821</v>
+        <v>33.7501</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>33.8947</v>
+        <v>33.7501</v>
       </c>
     </row>
     <row r="483">
@@ -15411,7 +15411,7 @@
         <v>2</v>
       </c>
       <c r="E483" t="n">
-        <v>34.157</v>
+        <v>33.6458</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>3</v>
       </c>
       <c r="E484" t="n">
-        <v>33.9468</v>
+        <v>33.731</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>4</v>
       </c>
       <c r="E485" t="n">
-        <v>33.8194</v>
+        <v>33.9998</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>5</v>
       </c>
       <c r="E486" t="n">
-        <v>33.8947</v>
+        <v>33.8596</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>34.5758</v>
+        <v>34.2717</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="n">
-        <v>34.493</v>
+        <v>34.1809</v>
       </c>
     </row>
     <row r="488">
@@ -15566,7 +15566,7 @@
         <v>2</v>
       </c>
       <c r="E488" t="n">
-        <v>34.5072</v>
+        <v>34.0534</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>3</v>
       </c>
       <c r="E489" t="n">
-        <v>34.493</v>
+        <v>34.1671</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>4</v>
       </c>
       <c r="E490" t="n">
-        <v>34.4089</v>
+        <v>34.1809</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>5</v>
       </c>
       <c r="E491" t="n">
-        <v>34.3467</v>
+        <v>34.2442</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>45.8319</v>
+        <v>45.5023</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="n">
-        <v>45.9446</v>
+        <v>45.646</v>
       </c>
     </row>
     <row r="493">
@@ -15721,7 +15721,7 @@
         <v>2</v>
       </c>
       <c r="E493" t="n">
-        <v>46.0193</v>
+        <v>45.6853</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>3</v>
       </c>
       <c r="E494" t="n">
-        <v>46.0517</v>
+        <v>45.5044</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>4</v>
       </c>
       <c r="E495" t="n">
-        <v>45.9446</v>
+        <v>45.646</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>5</v>
       </c>
       <c r="E496" t="n">
-        <v>45.9446</v>
+        <v>45.7211</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>128.309</v>
+        <v>128.722</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="n">
-        <v>128.027</v>
+        <v>128.588</v>
       </c>
     </row>
     <row r="498">
@@ -15876,7 +15876,7 @@
         <v>2</v>
       </c>
       <c r="E498" t="n">
-        <v>127.487</v>
+        <v>128.978</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>3</v>
       </c>
       <c r="E499" t="n">
-        <v>128.811</v>
+        <v>128.588</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>4</v>
       </c>
       <c r="E500" t="n">
-        <v>128.027</v>
+        <v>128.075</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>5</v>
       </c>
       <c r="E501" t="n">
-        <v>127.733</v>
+        <v>128.216</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>114.787</v>
+        <v>114.826</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="n">
-        <v>114.619</v>
+        <v>114.856</v>
       </c>
     </row>
     <row r="503">
@@ -16031,7 +16031,7 @@
         <v>2</v>
       </c>
       <c r="E503" t="n">
-        <v>114.553</v>
+        <v>115.444</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>3</v>
       </c>
       <c r="E504" t="n">
-        <v>114.58</v>
+        <v>114.814</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>4</v>
       </c>
       <c r="E505" t="n">
-        <v>114.778</v>
+        <v>114.856</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>5</v>
       </c>
       <c r="E506" t="n">
-        <v>114.619</v>
+        <v>114.901</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>282.343</v>
+        <v>282.35</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="n">
-        <v>282.416</v>
+        <v>282.35</v>
       </c>
     </row>
     <row r="508">
@@ -16186,7 +16186,7 @@
         <v>2</v>
       </c>
       <c r="E508" t="n">
-        <v>282.674</v>
+        <v>282.21</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>3</v>
       </c>
       <c r="E509" t="n">
-        <v>281.94</v>
+        <v>282.373</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>4</v>
       </c>
       <c r="E510" t="n">
-        <v>282.416</v>
+        <v>282.401</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>5</v>
       </c>
       <c r="E511" t="n">
-        <v>282.46</v>
+        <v>282.263</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>570.152</v>
+        <v>569.103</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="n">
-        <v>569.511</v>
+        <v>569.585</v>
       </c>
     </row>
     <row r="513">
@@ -16341,7 +16341,7 @@
         <v>2</v>
       </c>
       <c r="E513" t="n">
-        <v>569.253</v>
+        <v>569.599</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>3</v>
       </c>
       <c r="E514" t="n">
-        <v>568.713</v>
+        <v>569.404</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>4</v>
       </c>
       <c r="E515" t="n">
-        <v>569.511</v>
+        <v>569.585</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>5</v>
       </c>
       <c r="E516" t="n">
-        <v>569.542</v>
+        <v>570.172</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>1128.93</v>
+        <v>1128.3</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>1128.91</v>
+        <v>1128.36</v>
       </c>
     </row>
     <row r="518">
@@ -16496,7 +16496,7 @@
         <v>2</v>
       </c>
       <c r="E518" t="n">
-        <v>1128.42</v>
+        <v>1128.36</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>3</v>
       </c>
       <c r="E519" t="n">
-        <v>1128.33</v>
+        <v>1128.05</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>4</v>
       </c>
       <c r="E520" t="n">
-        <v>1131.7</v>
+        <v>1128.68</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>5</v>
       </c>
       <c r="E521" t="n">
-        <v>1128.91</v>
+        <v>1129.1</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1232.17</v>
+        <v>1221.2</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="n">
-        <v>1231.77</v>
+        <v>1218.46</v>
       </c>
     </row>
     <row r="523">
@@ -16651,7 +16651,7 @@
         <v>2</v>
       </c>
       <c r="E523" t="n">
-        <v>1231.77</v>
+        <v>1217.33</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>3</v>
       </c>
       <c r="E524" t="n">
-        <v>1234.42</v>
+        <v>1219.86</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>4</v>
       </c>
       <c r="E525" t="n">
-        <v>1218.61</v>
+        <v>1218.46</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>5</v>
       </c>
       <c r="E526" t="n">
-        <v>1217.27</v>
+        <v>1218.19</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1205.13</v>
+        <v>1203.04</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="n">
-        <v>1203.96</v>
+        <v>1204.91</v>
       </c>
     </row>
     <row r="528">
@@ -16806,7 +16806,7 @@
         <v>2</v>
       </c>
       <c r="E528" t="n">
-        <v>1203.96</v>
+        <v>1204.52</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>3</v>
       </c>
       <c r="E529" t="n">
-        <v>1205.32</v>
+        <v>1204.94</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>4</v>
       </c>
       <c r="E530" t="n">
-        <v>1203.31</v>
+        <v>1205.78</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>5</v>
       </c>
       <c r="E531" t="n">
-        <v>1203.51</v>
+        <v>1204.91</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1279.61</v>
+        <v>1279.26</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="n">
-        <v>1280.24</v>
+        <v>1279.89</v>
       </c>
     </row>
     <row r="533">
@@ -16961,7 +16961,7 @@
         <v>2</v>
       </c>
       <c r="E533" t="n">
-        <v>1279.27</v>
+        <v>1279.89</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>3</v>
       </c>
       <c r="E534" t="n">
-        <v>1280.24</v>
+        <v>1280</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>4</v>
       </c>
       <c r="E535" t="n">
-        <v>1326.2</v>
+        <v>1280.17</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>5</v>
       </c>
       <c r="E536" t="n">
-        <v>1409.75</v>
+        <v>1279.78</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>1812.13</v>
+        <v>1803.53</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="n">
-        <v>1806.1</v>
+        <v>1803.11</v>
       </c>
     </row>
     <row r="538">
@@ -17116,7 +17116,7 @@
         <v>2</v>
       </c>
       <c r="E538" t="n">
-        <v>1805.82</v>
+        <v>1802.08</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>3</v>
       </c>
       <c r="E539" t="n">
-        <v>1806.1</v>
+        <v>1803.62</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>4</v>
       </c>
       <c r="E540" t="n">
-        <v>1807.9</v>
+        <v>1802.99</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>5</v>
       </c>
       <c r="E541" t="n">
-        <v>1804.03</v>
+        <v>1803.11</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>

--- a/tests/results/Explorer Results/results.xlsx
+++ b/tests/results/Explorer Results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ahmad\TeaLeafChapel\tests\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ahmad\TeaLeafChapel\tests\results\Explorer Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE9AA3-2F5D-4C07-97F9-775B42DD27E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9030D24-0478-4F97-B576-33429F33833C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,13 +88,13 @@
     <t>CHEBY_SOLVER</t>
   </si>
   <si>
-    <t>x_cells=512, y_cells=512, end_step=20 20 chapel</t>
+    <t>x_cells=512, y_cells=512, end_step=20 20 C</t>
   </si>
   <si>
-    <t>x_cells=1024, y_cells=1024, end_step=20 20 chapel</t>
+    <t>x_cells=1024, y_cells=1024, end_step=20 20 C</t>
   </si>
   <si>
-    <t>x_cells=4000, y_cells=4000, end_step=10 10 chapel</t>
+    <t>x_cells=4000, y_cells=4000, end_step=10 10 C</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
-      <selection activeCell="B967" sqref="B967"/>
+    <sheetView tabSelected="1" topLeftCell="A793" workbookViewId="0">
+      <selection activeCell="B1041" sqref="B1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
